--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srepko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srepko\Documents\GitHub\CSharpGymProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D493DC-3404-4D20-955B-889B4562608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549DD61-0840-49AC-88F1-270AEB0050AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -56,18 +56,6 @@
     <t>Linie</t>
   </si>
   <si>
-    <t>01.04.2025</t>
-  </si>
-  <si>
-    <t>clasa1.cs</t>
-  </si>
-  <si>
-    <t>clasa2.cs</t>
-  </si>
-  <si>
-    <t>clasa3.cs</t>
-  </si>
-  <si>
     <t>S. Repko</t>
   </si>
   <si>
@@ -83,7 +71,7 @@
     <t>M. Zygar</t>
   </si>
   <si>
-    <t>diagram</t>
+    <t>DiagramyERDiCDM</t>
   </si>
 </sst>
 </file>
@@ -147,14 +135,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,13 +635,17 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="13" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="61.2">
@@ -676,23 +668,23 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="25.05" customHeight="1">
@@ -702,51 +694,51 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" t="s">
@@ -796,62 +788,27 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="3">
+        <v>45751</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="E7" s="3">
+        <v>45751</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>300</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>200</v>
-      </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="5">
-        <v>45996</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>250</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srepko\Documents\GitHub\CSharpGymProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549DD61-0840-49AC-88F1-270AEB0050AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F3799-6A21-418F-ADD9-430743CA7AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>DiagramyERDiCDM</t>
+  </si>
+  <si>
+    <t>Diagram klas</t>
   </si>
 </sst>
 </file>
@@ -635,25 +638,28 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.2">
+    <row r="1" spans="1:16" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="23.4">
+    <row r="2" spans="1:16" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -661,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="61.2">
+    <row r="3" spans="1:16" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -680,25 +686,25 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P3">
         <f>SUM(P7:P1001)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.05" customHeight="1">
+    <row r="4" spans="1:16" ht="25.15" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
@@ -706,11 +712,11 @@
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P4">
         <f>($B$2*P$3)/SUM($D$3:$AK$3)</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -805,6 +811,24 @@
       </c>
       <c r="G7">
         <v>100</v>
+      </c>
+      <c r="K7" s="3">
+        <v>45752</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7" s="3">
+        <v>45752</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16">
